--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Slit3-Robo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Slit3-Robo1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.096169666666666</v>
+        <v>0.4767983333333334</v>
       </c>
       <c r="H2">
-        <v>6.288508999999999</v>
+        <v>1.430395</v>
       </c>
       <c r="I2">
-        <v>0.01755614486036394</v>
+        <v>0.003723890400117776</v>
       </c>
       <c r="J2">
-        <v>0.01755614486036394</v>
+        <v>0.003723890400117776</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1325553333333333</v>
+        <v>0.007258333333333333</v>
       </c>
       <c r="N2">
-        <v>0.397666</v>
+        <v>0.021775</v>
       </c>
       <c r="O2">
-        <v>0.00533964316398423</v>
+        <v>0.000328667160253549</v>
       </c>
       <c r="P2">
-        <v>0.00533964316398423</v>
+        <v>0.000328667160253549</v>
       </c>
       <c r="Q2">
-        <v>0.2778584688882222</v>
+        <v>0.003460761236111111</v>
       </c>
       <c r="R2">
-        <v>2.500726219994</v>
+        <v>0.031146851125</v>
       </c>
       <c r="S2">
-        <v>9.374354888955917E-05</v>
+        <v>1.223920482902162E-06</v>
       </c>
       <c r="T2">
-        <v>9.374354888955917E-05</v>
+        <v>1.223920482902162E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.096169666666666</v>
+        <v>0.4767983333333334</v>
       </c>
       <c r="H3">
-        <v>6.288508999999999</v>
+        <v>1.430395</v>
       </c>
       <c r="I3">
-        <v>0.01755614486036394</v>
+        <v>0.003723890400117776</v>
       </c>
       <c r="J3">
-        <v>0.01755614486036394</v>
+        <v>0.003723890400117776</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>51.534798</v>
       </c>
       <c r="O3">
-        <v>0.6919812904497951</v>
+        <v>0.7778551418094273</v>
       </c>
       <c r="P3">
-        <v>0.691981290449795</v>
+        <v>0.7778551418094272</v>
       </c>
       <c r="Q3">
-        <v>36.00856011513133</v>
+        <v>8.190568598356668</v>
       </c>
       <c r="R3">
-        <v>324.077041036182</v>
+        <v>73.71511738521001</v>
       </c>
       <c r="S3">
-        <v>0.01214852377579818</v>
+        <v>0.002896647295266378</v>
       </c>
       <c r="T3">
-        <v>0.01214852377579817</v>
+        <v>0.002896647295266377</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.096169666666666</v>
+        <v>0.4767983333333334</v>
       </c>
       <c r="H4">
-        <v>6.288508999999999</v>
+        <v>1.430395</v>
       </c>
       <c r="I4">
-        <v>0.01755614486036394</v>
+        <v>0.003723890400117776</v>
       </c>
       <c r="J4">
-        <v>0.01755614486036394</v>
+        <v>0.003723890400117776</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.513933666666667</v>
+        <v>4.898620999999999</v>
       </c>
       <c r="N4">
-        <v>22.541801</v>
+        <v>14.695863</v>
       </c>
       <c r="O4">
-        <v>0.3026790663862208</v>
+        <v>0.2218161910303192</v>
       </c>
       <c r="P4">
-        <v>0.3026790663862208</v>
+        <v>0.2218161910303192</v>
       </c>
       <c r="Q4">
-        <v>15.75047982941211</v>
+        <v>2.335654328431667</v>
       </c>
       <c r="R4">
-        <v>141.754318464709</v>
+        <v>21.020888955885</v>
       </c>
       <c r="S4">
-        <v>0.005313877535676206</v>
+        <v>0.0008260191843684966</v>
       </c>
       <c r="T4">
-        <v>0.005313877535676206</v>
+        <v>0.0008260191843684965</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>326.119697</v>
       </c>
       <c r="I5">
-        <v>0.9104550287436967</v>
+        <v>0.8490200321922391</v>
       </c>
       <c r="J5">
-        <v>0.9104550287436968</v>
+        <v>0.8490200321922391</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1325553333333333</v>
+        <v>0.007258333333333333</v>
       </c>
       <c r="N5">
-        <v>0.397666</v>
+        <v>0.021775</v>
       </c>
       <c r="O5">
-        <v>0.00533964316398423</v>
+        <v>0.000328667160253549</v>
       </c>
       <c r="P5">
-        <v>0.00533964316398423</v>
+        <v>0.000328667160253549</v>
       </c>
       <c r="Q5">
-        <v>14.40963504746689</v>
+        <v>0.7890284891305555</v>
       </c>
       <c r="R5">
-        <v>129.686715427202</v>
+        <v>7.101256402174999</v>
       </c>
       <c r="S5">
-        <v>0.004861504970346345</v>
+        <v>0.000279045002979</v>
       </c>
       <c r="T5">
-        <v>0.004861504970346346</v>
+        <v>0.000279045002979</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>326.119697</v>
       </c>
       <c r="I6">
-        <v>0.9104550287436967</v>
+        <v>0.8490200321922391</v>
       </c>
       <c r="J6">
-        <v>0.9104550287436968</v>
+        <v>0.8490200321922391</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>51.534798</v>
       </c>
       <c r="O6">
-        <v>0.6919812904497951</v>
+        <v>0.7778551418094273</v>
       </c>
       <c r="P6">
-        <v>0.691981290449795</v>
+        <v>0.7778551418094272</v>
       </c>
       <c r="Q6">
         <v>1867.390300968467</v>
@@ -818,10 +818,10 @@
         <v>16806.5127087162</v>
       </c>
       <c r="S6">
-        <v>0.6300178456865685</v>
+        <v>0.6604145975399387</v>
       </c>
       <c r="T6">
-        <v>0.6300178456865685</v>
+        <v>0.6604145975399386</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>326.119697</v>
       </c>
       <c r="I7">
-        <v>0.9104550287436967</v>
+        <v>0.8490200321922391</v>
       </c>
       <c r="J7">
-        <v>0.9104550287436968</v>
+        <v>0.8490200321922391</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.513933666666667</v>
+        <v>4.898620999999999</v>
       </c>
       <c r="N7">
-        <v>22.541801</v>
+        <v>14.695863</v>
       </c>
       <c r="O7">
-        <v>0.3026790663862208</v>
+        <v>0.2218161910303192</v>
       </c>
       <c r="P7">
-        <v>0.3026790663862208</v>
+        <v>0.2218161910303192</v>
       </c>
       <c r="Q7">
-        <v>816.8139235504775</v>
+        <v>532.5122654126122</v>
       </c>
       <c r="R7">
-        <v>7351.325311954298</v>
+        <v>4792.61038871351</v>
       </c>
       <c r="S7">
-        <v>0.275575678086782</v>
+        <v>0.1883263896493215</v>
       </c>
       <c r="T7">
-        <v>0.275575678086782</v>
+        <v>0.1883263896493215</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.595326333333334</v>
+        <v>18.85432833333333</v>
       </c>
       <c r="H8">
-        <v>25.785979</v>
+        <v>56.562985</v>
       </c>
       <c r="I8">
-        <v>0.07198882639593941</v>
+        <v>0.1472560774076432</v>
       </c>
       <c r="J8">
-        <v>0.07198882639593941</v>
+        <v>0.1472560774076432</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1325553333333333</v>
+        <v>0.007258333333333333</v>
       </c>
       <c r="N8">
-        <v>0.397666</v>
+        <v>0.021775</v>
       </c>
       <c r="O8">
-        <v>0.00533964316398423</v>
+        <v>0.000328667160253549</v>
       </c>
       <c r="P8">
-        <v>0.00533964316398423</v>
+        <v>0.000328667160253549</v>
       </c>
       <c r="Q8">
-        <v>1.139356347223778</v>
+        <v>0.1368509998194444</v>
       </c>
       <c r="R8">
-        <v>10.254207125014</v>
+        <v>1.231658998375</v>
       </c>
       <c r="S8">
-        <v>0.0003843946447483253</v>
+        <v>4.839823679164687E-05</v>
       </c>
       <c r="T8">
-        <v>0.0003843946447483253</v>
+        <v>4.839823679164687E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.595326333333334</v>
+        <v>18.85432833333333</v>
       </c>
       <c r="H9">
-        <v>25.785979</v>
+        <v>56.562985</v>
       </c>
       <c r="I9">
-        <v>0.07198882639593941</v>
+        <v>0.1472560774076432</v>
       </c>
       <c r="J9">
-        <v>0.07198882639593941</v>
+        <v>0.1472560774076432</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>51.534798</v>
       </c>
       <c r="O9">
-        <v>0.6919812904497951</v>
+        <v>0.7778551418094273</v>
       </c>
       <c r="P9">
-        <v>0.691981290449795</v>
+        <v>0.7778551418094272</v>
       </c>
       <c r="Q9">
-        <v>147.6528021108047</v>
+        <v>323.8846673613367</v>
       </c>
       <c r="R9">
-        <v>1328.875218997242</v>
+        <v>2914.96200625203</v>
       </c>
       <c r="S9">
-        <v>0.04981492098742842</v>
+        <v>0.1145438969742223</v>
       </c>
       <c r="T9">
-        <v>0.04981492098742842</v>
+        <v>0.1145438969742223</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.595326333333334</v>
+        <v>18.85432833333333</v>
       </c>
       <c r="H10">
-        <v>25.785979</v>
+        <v>56.562985</v>
       </c>
       <c r="I10">
-        <v>0.07198882639593941</v>
+        <v>0.1472560774076432</v>
       </c>
       <c r="J10">
-        <v>0.07198882639593941</v>
+        <v>0.1472560774076432</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.513933666666667</v>
+        <v>4.898620999999999</v>
       </c>
       <c r="N10">
-        <v>22.541801</v>
+        <v>14.695863</v>
       </c>
       <c r="O10">
-        <v>0.3026790663862208</v>
+        <v>0.2218161910303192</v>
       </c>
       <c r="P10">
-        <v>0.3026790663862208</v>
+        <v>0.2218161910303192</v>
       </c>
       <c r="Q10">
-        <v>64.5847119120199</v>
+        <v>92.36020871456165</v>
       </c>
       <c r="R10">
-        <v>581.2624072081791</v>
+        <v>831.2418784310549</v>
       </c>
       <c r="S10">
-        <v>0.02178951076376267</v>
+        <v>0.03266378219662925</v>
       </c>
       <c r="T10">
-        <v>0.02178951076376267</v>
+        <v>0.03266378219662926</v>
       </c>
     </row>
   </sheetData>
